--- a/cases/2021sdzyydxfsyy/指标维度库.xlsx
+++ b/cases/2021sdzyydxfsyy/指标维度库.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\量化相关\别名表+维度表+导向表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\山东中医药大学附属医院\D数据分析\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C669A34D-B70D-42EC-A066-C56B312F0ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA42CCFE-5474-4EE3-A32A-AEF3E78B686C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -193,38 +193,6 @@
     <t>低风险组病例死亡率</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>住院患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>31</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>天非计划再返率</t>
-    </r>
-  </si>
-  <si>
     <t>住院患者基本药物使用率</t>
   </si>
   <si>
@@ -578,6 +546,9 @@
   <si>
     <t>服务流程</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>住院患者出院后0到31天非预期再住院率</t>
   </si>
 </sst>
 </file>
@@ -1030,7 +1001,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G56" sqref="G56"/>
+      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="15.5"/>
@@ -1048,7 +1019,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16">
@@ -1170,7 +1141,7 @@
     </row>
     <row r="14" spans="1:3" ht="16">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>6</v>
@@ -1178,10 +1149,10 @@
     </row>
     <row r="15" spans="1:3" ht="16">
       <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="C15" s="7">
         <v>3</v>
@@ -1189,15 +1160,15 @@
     </row>
     <row r="16" spans="1:3" ht="16">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16">
       <c r="A17" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>12</v>
@@ -1208,7 +1179,7 @@
     </row>
     <row r="18" spans="1:3" ht="16">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>10</v>
@@ -1216,15 +1187,15 @@
     </row>
     <row r="19" spans="1:3" ht="16">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="16">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>14</v>
@@ -1235,7 +1206,7 @@
     </row>
     <row r="21" spans="1:3" ht="16">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>12</v>
@@ -1243,7 +1214,7 @@
     </row>
     <row r="22" spans="1:3" ht="16">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>12</v>
@@ -1251,7 +1222,7 @@
     </row>
     <row r="23" spans="1:3" ht="16">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>12</v>
@@ -1259,7 +1230,7 @@
     </row>
     <row r="24" spans="1:3" ht="16">
       <c r="A24" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>12</v>
@@ -1267,7 +1238,7 @@
     </row>
     <row r="25" spans="1:3" ht="16">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>12</v>
@@ -1275,7 +1246,7 @@
     </row>
     <row r="26" spans="1:3" ht="16">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>12</v>
@@ -1283,7 +1254,7 @@
     </row>
     <row r="27" spans="1:3" ht="16">
       <c r="A27" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>8</v>
@@ -1291,7 +1262,7 @@
     </row>
     <row r="28" spans="1:3" ht="16">
       <c r="A28" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>8</v>
@@ -1299,7 +1270,7 @@
     </row>
     <row r="29" spans="1:3" ht="16">
       <c r="A29" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>8</v>
@@ -1307,7 +1278,7 @@
     </row>
     <row r="30" spans="1:3" ht="16">
       <c r="A30" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
@@ -1315,7 +1286,7 @@
     </row>
     <row r="31" spans="1:3" ht="16">
       <c r="A31" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>8</v>
@@ -1323,7 +1294,7 @@
     </row>
     <row r="32" spans="1:3" ht="16">
       <c r="A32" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>14</v>
@@ -1331,7 +1302,7 @@
     </row>
     <row r="33" spans="1:3" ht="16">
       <c r="A33" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>14</v>
@@ -1339,7 +1310,7 @@
     </row>
     <row r="34" spans="1:3" ht="16">
       <c r="A34" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>14</v>
@@ -1347,7 +1318,7 @@
     </row>
     <row r="35" spans="1:3" ht="16">
       <c r="A35" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>14</v>
@@ -1355,7 +1326,7 @@
     </row>
     <row r="36" spans="1:3" ht="16">
       <c r="A36" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>6</v>
@@ -1363,7 +1334,7 @@
     </row>
     <row r="37" spans="1:3" ht="16">
       <c r="A37" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>14</v>
@@ -1371,18 +1342,18 @@
     </row>
     <row r="38" spans="1:3" ht="16">
       <c r="A38" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="16">
       <c r="A39" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="C39" s="7">
         <v>3</v>
@@ -1390,10 +1361,10 @@
     </row>
     <row r="40" spans="1:3" ht="16">
       <c r="A40" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C40" s="8">
         <v>4</v>
@@ -1401,7 +1372,7 @@
     </row>
     <row r="41" spans="1:3" ht="16">
       <c r="A41" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>10</v>
@@ -1412,7 +1383,7 @@
     </row>
     <row r="42" spans="1:3" ht="16">
       <c r="A42" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>10</v>
@@ -1423,7 +1394,7 @@
     </row>
     <row r="43" spans="1:3" ht="16">
       <c r="A43" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>10</v>
@@ -1434,7 +1405,7 @@
     </row>
     <row r="44" spans="1:3" ht="16.5">
       <c r="A44" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>10</v>
@@ -1445,7 +1416,7 @@
     </row>
     <row r="45" spans="1:3" ht="16">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>10</v>
@@ -1456,10 +1427,10 @@
     </row>
     <row r="46" spans="1:3" ht="16">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C46" s="5">
         <v>1</v>
@@ -1467,7 +1438,7 @@
     </row>
     <row r="47" spans="1:3" ht="16">
       <c r="A47" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>6</v>
@@ -1475,15 +1446,15 @@
     </row>
     <row r="48" spans="1:3" ht="16">
       <c r="A48" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="16">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>14</v>
@@ -1494,7 +1465,7 @@
     </row>
     <row r="50" spans="1:3" ht="16">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>14</v>
@@ -1505,7 +1476,7 @@
     </row>
     <row r="51" spans="1:3" ht="16">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>14</v>
@@ -1516,7 +1487,7 @@
     </row>
     <row r="52" spans="1:3" ht="16">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>14</v>
@@ -1527,10 +1498,10 @@
     </row>
     <row r="53" spans="1:3" ht="16">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C53" s="5">
         <v>1</v>
@@ -1538,15 +1509,15 @@
     </row>
     <row r="54" spans="1:3" ht="16">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="16">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>6</v>
@@ -1557,15 +1528,15 @@
     </row>
     <row r="56" spans="1:3" ht="16">
       <c r="A56" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="16">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>6</v>
@@ -1573,10 +1544,10 @@
     </row>
     <row r="58" spans="1:3" ht="16">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C58" s="7">
         <v>3</v>
@@ -1584,7 +1555,7 @@
     </row>
     <row r="59" spans="1:3" ht="16">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>6</v>
@@ -1592,7 +1563,7 @@
     </row>
     <row r="60" spans="1:3" ht="16">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>14</v>
@@ -1603,10 +1574,10 @@
     </row>
     <row r="61" spans="1:3" ht="16">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C61" s="8">
         <v>4</v>
@@ -1614,7 +1585,7 @@
     </row>
     <row r="62" spans="1:3" ht="16">
       <c r="A62" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>12</v>
@@ -1622,7 +1593,7 @@
     </row>
     <row r="63" spans="1:3" ht="16">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>10</v>
@@ -1633,63 +1604,63 @@
     </row>
     <row r="64" spans="1:3" ht="16">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="16">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="16">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="16">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="16">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="16">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="16">
       <c r="A70" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="16">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>8</v>
@@ -1697,7 +1668,7 @@
     </row>
     <row r="72" spans="1:3" ht="16">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>8</v>
@@ -1705,7 +1676,7 @@
     </row>
     <row r="73" spans="1:3" ht="16">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>8</v>
@@ -1713,10 +1684,10 @@
     </row>
     <row r="74" spans="1:3" ht="16">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C74" s="5">
         <v>1</v>
@@ -1724,10 +1695,10 @@
     </row>
     <row r="75" spans="1:3" ht="16">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C75" s="5">
         <v>1</v>
@@ -1735,10 +1706,10 @@
     </row>
     <row r="76" spans="1:3" ht="16">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C76" s="5">
         <v>1</v>
@@ -1746,7 +1717,7 @@
     </row>
     <row r="77" spans="1:3" ht="16">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>6</v>
@@ -1757,10 +1728,10 @@
     </row>
     <row r="78" spans="1:3" ht="16">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C78" s="5">
         <v>1</v>
@@ -1768,15 +1739,15 @@
     </row>
     <row r="79" spans="1:3" ht="16">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="16">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>14</v>
@@ -1787,15 +1758,15 @@
     </row>
     <row r="81" spans="1:3" ht="16">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="16">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>10</v>
@@ -1803,7 +1774,7 @@
     </row>
     <row r="83" spans="1:3" ht="16">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>10</v>
@@ -1811,7 +1782,7 @@
     </row>
     <row r="84" spans="1:3" ht="16">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>10</v>
@@ -1822,10 +1793,10 @@
     </row>
     <row r="85" spans="1:3" ht="16">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C85" s="6">
         <v>2</v>
@@ -1833,10 +1804,10 @@
     </row>
     <row r="86" spans="1:3" ht="16">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C86" s="5">
         <v>1</v>
@@ -1844,7 +1815,7 @@
     </row>
     <row r="87" spans="1:3" ht="16">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>14</v>
@@ -1855,7 +1826,7 @@
     </row>
     <row r="88" spans="1:3" ht="16">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>10</v>
@@ -1866,7 +1837,7 @@
     </row>
     <row r="89" spans="1:3" ht="16">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>12</v>
@@ -1874,7 +1845,7 @@
     </row>
     <row r="90" spans="1:3" ht="16">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>12</v>
@@ -1882,10 +1853,10 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C91" s="7">
         <v>3</v>
@@ -1893,7 +1864,7 @@
     </row>
     <row r="92" spans="1:3" ht="16">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>12</v>
@@ -1901,10 +1872,10 @@
     </row>
     <row r="93" spans="1:3" ht="16">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C93" s="7">
         <v>3</v>
@@ -1912,10 +1883,10 @@
     </row>
     <row r="94" spans="1:3" ht="16">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C94" s="7">
         <v>3</v>
@@ -1923,7 +1894,7 @@
     </row>
     <row r="95" spans="1:3" ht="16">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>10</v>
@@ -1931,7 +1902,7 @@
     </row>
     <row r="96" spans="1:3" ht="16">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>12</v>
@@ -1942,15 +1913,15 @@
     </row>
     <row r="97" spans="1:3" ht="16">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="16">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>6</v>
@@ -1958,7 +1929,7 @@
     </row>
     <row r="99" spans="1:3" ht="16">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>14</v>

--- a/cases/2021sdzyydxfsyy/指标维度库.xlsx
+++ b/cases/2021sdzyydxfsyy/指标维度库.xlsx
@@ -635,11 +635,11 @@
   </sheetPr>
   <dimension ref="A1:B93"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B51" activeCellId="5" sqref="B4 B12:B13 B33 B41 B49 B51 B54 B71 B92"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B93" activeCellId="0" sqref="B93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.484375" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4765625" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9"/>
@@ -1378,7 +1378,7 @@
         <v>105</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
